--- a/SuppFig3/SuppFig3 data.xlsx
+++ b/SuppFig3/SuppFig3 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcsegura/Desktop/PP4_github/SuppFig3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C8AD2-7DD6-EB41-9C57-B3A948CCDCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6436091-38F7-B24C-96FE-82C66AAA227D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{68A59B8E-C130-9E42-8C70-3263B548EDC3}"/>
+    <workbookView xWindow="-32600" yWindow="7180" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{68A59B8E-C130-9E42-8C70-3263B548EDC3}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppFig 3C, D" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="62">
   <si>
     <t>file name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>yTubulin37C[3]</t>
   </si>
   <si>
-    <t>2024-07-03 general yTub Ab_21_yTubulin37C[3] - 10 Image 20.ims</t>
-  </si>
-  <si>
     <t>2024-07-03 general yTub Ab_21_yTubulin37C[3] - 7 Image 17.ims</t>
   </si>
   <si>
@@ -214,6 +211,18 @@
   </si>
   <si>
     <t>****</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>SuppFig 3C</t>
+  </si>
+  <si>
+    <t>SuppFig 3D</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF0405A-552E-CA4E-BEF6-60B0B0A577DC}">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C111" sqref="B109:C111"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,27 +709,27 @@
         <v>202</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I108" si="0">E3-130</f>
+        <f t="shared" ref="I3:I106" si="0">E3-130</f>
         <v>276</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J108" si="1">F3-130</f>
+        <f t="shared" ref="J3:J106" si="1">F3-130</f>
         <v>102</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K108" si="2">G3-130</f>
+        <f t="shared" ref="K3:K106" si="2">G3-130</f>
         <v>72</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M108" si="3">I3/K3</f>
+        <f t="shared" ref="M3:M106" si="3">I3/K3</f>
         <v>3.8333333333333335</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N108" si="4">J3/K3</f>
+        <f t="shared" ref="N3:N106" si="4">J3/K3</f>
         <v>1.4166666666666667</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O108" si="5">I3/J3</f>
+        <f t="shared" ref="O3:O106" si="5">I3/J3</f>
         <v>2.7058823529411766</v>
       </c>
     </row>
@@ -1269,315 +1278,315 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="F16">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G16">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>12.727272727272727</v>
+        <v>2.3265306122448979</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>5.9545454545454541</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>2.1374045801526718</v>
+        <v>0.95798319327731096</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>227</v>
+      </c>
+      <c r="F17">
+        <v>199</v>
+      </c>
+      <c r="G17">
+        <v>171</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>2.3658536585365852</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>1.6829268292682926</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>1.4057971014492754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>244</v>
-      </c>
-      <c r="F17">
-        <v>249</v>
-      </c>
-      <c r="G17">
-        <v>179</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>2.3265306122448979</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="5"/>
-        <v>0.95798319327731096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>324</v>
+      </c>
+      <c r="F18">
+        <v>305</v>
+      </c>
+      <c r="G18">
+        <v>207</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>2.5194805194805197</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>1.1085714285714285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
         <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>227</v>
-      </c>
-      <c r="F18">
-        <v>199</v>
-      </c>
-      <c r="G18">
-        <v>171</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>2.3658536585365852</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="4"/>
-        <v>1.6829268292682926</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="5"/>
-        <v>1.4057971014492754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19">
-        <v>324</v>
+        <v>548</v>
       </c>
       <c r="F19">
-        <v>305</v>
+        <v>541</v>
       </c>
       <c r="G19">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>418</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>2.5194805194805197</v>
+        <v>6.8524590163934427</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>2.2727272727272729</v>
+        <v>6.7377049180327866</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>1.1085714285714285</v>
+        <v>1.0170316301703164</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>362</v>
+      </c>
+      <c r="F20">
+        <v>320</v>
+      </c>
+      <c r="G20">
+        <v>203</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>3.1780821917808217</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>2.6027397260273974</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>1.2210526315789474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>347</v>
+      </c>
+      <c r="F21">
+        <v>262</v>
+      </c>
+      <c r="G21">
+        <v>199</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>3.1449275362318843</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>1.9130434782608696</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>1.643939393939394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>548</v>
-      </c>
-      <c r="F20">
-        <v>541</v>
-      </c>
-      <c r="G20">
-        <v>191</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>418</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>411</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>6.8524590163934427</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="4"/>
-        <v>6.7377049180327866</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="5"/>
-        <v>1.0170316301703164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>362</v>
-      </c>
-      <c r="F21">
-        <v>320</v>
-      </c>
-      <c r="G21">
-        <v>203</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>3.1780821917808217</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="4"/>
-        <v>2.6027397260273974</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="5"/>
-        <v>1.2210526315789474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>22</v>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F22">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G22">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>3.1449275362318843</v>
+        <v>4.1509433962264151</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>1.9130434782608696</v>
+        <v>2.641509433962264</v>
       </c>
       <c r="O22">
         <f t="shared" si="5"/>
-        <v>1.643939393939394</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1586,577 +1595,574 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="F23">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G23">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>4.1509433962264151</v>
+        <v>3.1960784313725492</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>2.641509433962264</v>
+        <v>3.4901960784313726</v>
       </c>
       <c r="O23">
         <f t="shared" si="5"/>
-        <v>1.5714285714285714</v>
+        <v>0.9157303370786517</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>403</v>
+      </c>
+      <c r="F24">
+        <v>376</v>
+      </c>
+      <c r="G24">
+        <v>193</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>3.9047619047619047</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>1.1097560975609757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>293</v>
-      </c>
-      <c r="F24">
-        <v>308</v>
-      </c>
-      <c r="G24">
-        <v>181</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>163</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>367</v>
+      </c>
+      <c r="F25">
+        <v>239</v>
+      </c>
+      <c r="G25">
         <v>178</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>3.1960784313725492</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="4"/>
-        <v>3.4901960784313726</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
-        <v>0.9157303370786517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>4.9375</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>2.2708333333333335</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>2.1743119266055047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="E25">
-        <v>403</v>
-      </c>
-      <c r="F25">
-        <v>376</v>
-      </c>
-      <c r="G25">
-        <v>193</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
-        <v>3.9047619047619047</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="5"/>
-        <v>1.1097560975609757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
       <c r="E26">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="F26">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="G26">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M26">
         <f t="shared" si="3"/>
-        <v>4.9375</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>2.2708333333333335</v>
+        <v>6.1111111111111107</v>
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>2.1743119266055047</v>
+        <v>2.0181818181818181</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>463</v>
+        <v>338</v>
       </c>
       <c r="F27">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G27">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M27">
         <f t="shared" si="3"/>
-        <v>12.333333333333334</v>
+        <v>4.7272727272727275</v>
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>6.1111111111111107</v>
+        <v>3.4318181818181817</v>
       </c>
       <c r="O27">
         <f t="shared" si="5"/>
-        <v>2.0181818181818181</v>
+        <v>1.3774834437086092</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>477</v>
+      </c>
+      <c r="G28">
+        <v>172</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>8.8095238095238102</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>8.2619047619047628</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>1.0662824207492796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>338</v>
-      </c>
-      <c r="F28">
-        <v>281</v>
-      </c>
-      <c r="G28">
-        <v>174</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="4"/>
-        <v>3.4318181818181817</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="5"/>
-        <v>1.3774834437086092</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>500</v>
+        <v>252</v>
       </c>
       <c r="F29">
-        <v>477</v>
+        <v>231</v>
       </c>
       <c r="G29">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M29">
         <f t="shared" si="3"/>
-        <v>8.8095238095238102</v>
+        <v>2.0677966101694913</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>8.2619047619047628</v>
+        <v>1.7118644067796611</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>1.0662824207492796</v>
+        <v>1.2079207920792079</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F30">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="G30">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M30">
         <f t="shared" si="3"/>
-        <v>2.0677966101694913</v>
+        <v>2.6851851851851851</v>
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>1.7118644067796611</v>
+        <v>2.6111111111111112</v>
       </c>
       <c r="O30">
         <f t="shared" si="5"/>
-        <v>1.2079207920792079</v>
+        <v>1.0283687943262412</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="F31">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G31">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
-        <v>2.6851851851851851</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>2.6111111111111112</v>
+        <v>1.9545454545454546</v>
       </c>
       <c r="O31">
         <f t="shared" si="5"/>
-        <v>1.0283687943262412</v>
+        <v>1.3953488372093024</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="F32">
-        <v>259</v>
+        <v>452</v>
       </c>
       <c r="G32">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>2.7272727272727271</v>
+        <v>5.484375</v>
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>1.9545454545454546</v>
+        <v>5.03125</v>
       </c>
       <c r="O32">
         <f t="shared" si="5"/>
-        <v>1.3953488372093024</v>
+        <v>1.0900621118012421</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>530</v>
+      </c>
+      <c r="F33">
+        <v>319</v>
+      </c>
+      <c r="G33">
+        <v>165</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>5.4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>2.1164021164021163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>481</v>
-      </c>
-      <c r="F33">
-        <v>452</v>
-      </c>
-      <c r="G33">
-        <v>194</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>322</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
-        <v>5.484375</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="4"/>
-        <v>5.03125</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="5"/>
-        <v>1.0900621118012421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
       <c r="E34">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F34">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="G34">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M34">
         <f t="shared" si="3"/>
-        <v>11.428571428571429</v>
+        <v>8.0392156862745097</v>
       </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>5.9803921568627452</v>
       </c>
       <c r="O34">
         <f t="shared" si="5"/>
-        <v>2.1164021164021163</v>
+        <v>1.3442622950819672</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="F35">
-        <v>435</v>
+        <v>237</v>
       </c>
       <c r="G35">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>147</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M35">
         <f t="shared" si="3"/>
-        <v>8.0392156862745097</v>
+        <v>2.370967741935484</v>
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>5.9803921568627452</v>
+        <v>1.7258064516129032</v>
       </c>
       <c r="O35">
         <f t="shared" si="5"/>
-        <v>1.3442622950819672</v>
+        <v>1.3738317757009346</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2164,43 +2170,43 @@
         <v>14</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
-        <v>277</v>
+        <v>648</v>
       </c>
       <c r="F36">
-        <v>237</v>
+        <v>386</v>
       </c>
       <c r="G36">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>518</v>
       </c>
       <c r="J36">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M36">
         <f t="shared" si="3"/>
-        <v>2.370967741935484</v>
+        <v>6.8157894736842106</v>
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>1.7258064516129032</v>
+        <v>3.3684210526315788</v>
       </c>
       <c r="O36">
         <f t="shared" si="5"/>
-        <v>1.3738317757009346</v>
+        <v>2.0234375</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2208,43 +2214,43 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37">
-        <v>648</v>
+        <v>600</v>
       </c>
       <c r="F37">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="G37">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="J37">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M37">
         <f t="shared" si="3"/>
-        <v>6.8157894736842106</v>
+        <v>5.9493670886075947</v>
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>3.3684210526315788</v>
+        <v>3.962025316455696</v>
       </c>
       <c r="O37">
         <f t="shared" si="5"/>
-        <v>2.0234375</v>
+        <v>1.5015974440894568</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2252,134 +2258,134 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>600</v>
+        <v>446</v>
       </c>
       <c r="F38">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="G38">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>316</v>
       </c>
       <c r="J38">
         <f t="shared" si="1"/>
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M38">
         <f t="shared" si="3"/>
-        <v>5.9493670886075947</v>
+        <v>4.3888888888888893</v>
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>3.962025316455696</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="O38">
         <f t="shared" si="5"/>
-        <v>1.5015974440894568</v>
+        <v>2.8727272727272726</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>446</v>
+        <v>601</v>
       </c>
       <c r="F39">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="G39">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="J39">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M39">
         <f t="shared" si="3"/>
-        <v>4.3888888888888893</v>
+        <v>8.2631578947368425</v>
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>1.5277777777777777</v>
+        <v>3.0350877192982457</v>
       </c>
       <c r="O39">
         <f t="shared" si="5"/>
-        <v>2.8727272727272726</v>
+        <v>2.7225433526011562</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="F40">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="G40">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="J40">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M40">
         <f t="shared" si="3"/>
-        <v>8.2631578947368425</v>
+        <v>10.702127659574469</v>
       </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>3.0350877192982457</v>
+        <v>5.9148936170212769</v>
       </c>
       <c r="O40">
         <f t="shared" si="5"/>
-        <v>2.7225433526011562</v>
+        <v>1.8093525179856116</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2387,43 +2393,43 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>633</v>
+        <v>347</v>
       </c>
       <c r="F41">
-        <v>408</v>
+        <v>203</v>
       </c>
       <c r="G41">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>217</v>
       </c>
       <c r="J41">
         <f t="shared" si="1"/>
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M41">
         <f t="shared" si="3"/>
-        <v>10.702127659574469</v>
+        <v>3.7413793103448274</v>
       </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>5.9148936170212769</v>
+        <v>1.2586206896551724</v>
       </c>
       <c r="O41">
         <f t="shared" si="5"/>
-        <v>1.8093525179856116</v>
+        <v>2.9726027397260273</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2431,43 +2437,43 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F42">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="G42">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J42">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M42">
         <f t="shared" si="3"/>
-        <v>3.7413793103448274</v>
+        <v>4.4230769230769234</v>
       </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>1.2586206896551724</v>
+        <v>2.0384615384615383</v>
       </c>
       <c r="O42">
         <f t="shared" si="5"/>
-        <v>2.9726027397260273</v>
+        <v>2.1698113207547172</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2475,43 +2481,43 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="F43">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G43">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="J43">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M43">
         <f t="shared" si="3"/>
-        <v>4.4230769230769234</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="N43">
         <f t="shared" si="4"/>
-        <v>2.0384615384615383</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="O43">
         <f t="shared" si="5"/>
-        <v>2.1698113207547172</v>
+        <v>2.6842105263157894</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2519,43 +2525,43 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>334</v>
+        <v>437</v>
       </c>
       <c r="F44">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="G44">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M44">
         <f t="shared" si="3"/>
-        <v>5.666666666666667</v>
+        <v>8.0789473684210531</v>
       </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>2.1111111111111112</v>
+        <v>5.8421052631578947</v>
       </c>
       <c r="O44">
         <f t="shared" si="5"/>
-        <v>2.6842105263157894</v>
+        <v>1.382882882882883</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2563,43 +2569,43 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>437</v>
+        <v>303</v>
       </c>
       <c r="F45">
-        <v>352</v>
+        <v>208</v>
       </c>
       <c r="G45">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M45">
         <f t="shared" si="3"/>
-        <v>8.0789473684210531</v>
+        <v>3.6808510638297873</v>
       </c>
       <c r="N45">
         <f t="shared" si="4"/>
-        <v>5.8421052631578947</v>
+        <v>1.6595744680851063</v>
       </c>
       <c r="O45">
         <f t="shared" si="5"/>
-        <v>1.382882882882883</v>
+        <v>2.2179487179487181</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2607,27 +2613,27 @@
         <v>14</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="F46">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G46">
         <v>177</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="J46">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
@@ -2635,15 +2641,15 @@
       </c>
       <c r="M46">
         <f t="shared" si="3"/>
-        <v>3.6808510638297873</v>
+        <v>7.4680851063829783</v>
       </c>
       <c r="N46">
         <f t="shared" si="4"/>
-        <v>1.6595744680851063</v>
+        <v>1.6808510638297873</v>
       </c>
       <c r="O46">
         <f t="shared" si="5"/>
-        <v>2.2179487179487181</v>
+        <v>4.443037974683544</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2651,43 +2657,43 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>502</v>
+        <v>284</v>
       </c>
       <c r="F47">
-        <v>480</v>
+        <v>209</v>
       </c>
       <c r="G47">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>154</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M47">
         <f t="shared" si="3"/>
-        <v>10.054054054054054</v>
+        <v>3.4222222222222221</v>
       </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>9.4594594594594597</v>
+        <v>1.7555555555555555</v>
       </c>
       <c r="O47">
         <f t="shared" si="5"/>
-        <v>1.0628571428571429</v>
+        <v>1.9493670886075949</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2695,43 +2701,43 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>481</v>
+        <v>289</v>
       </c>
       <c r="F48">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G48">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="J48">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M48">
         <f t="shared" si="3"/>
-        <v>7.4680851063829783</v>
+        <v>2.6949152542372881</v>
       </c>
       <c r="N48">
         <f t="shared" si="4"/>
-        <v>1.6808510638297873</v>
+        <v>1.0338983050847457</v>
       </c>
       <c r="O48">
         <f t="shared" si="5"/>
-        <v>4.443037974683544</v>
+        <v>2.6065573770491803</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -2739,87 +2745,90 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F49">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G49">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J49">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M49">
         <f t="shared" si="3"/>
-        <v>3.4222222222222221</v>
+        <v>3.1764705882352939</v>
       </c>
       <c r="N49">
         <f t="shared" si="4"/>
-        <v>1.7555555555555555</v>
+        <v>2.1176470588235294</v>
       </c>
       <c r="O49">
         <f t="shared" si="5"/>
-        <v>1.9493670886075949</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="F50">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="G50">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M50">
         <f t="shared" si="3"/>
-        <v>2.6949152542372881</v>
+        <v>4.8260869565217392</v>
       </c>
       <c r="N50">
         <f t="shared" si="4"/>
-        <v>1.0338983050847457</v>
+        <v>3.6956521739130435</v>
       </c>
       <c r="O50">
         <f t="shared" si="5"/>
-        <v>2.6065573770491803</v>
+        <v>1.3058823529411765</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -2827,27 +2836,27 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="F51">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G51">
         <v>181</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="J51">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
@@ -2855,46 +2864,43 @@
       </c>
       <c r="M51">
         <f t="shared" si="3"/>
-        <v>3.1764705882352939</v>
+        <v>4.3529411764705879</v>
       </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>2.1176470588235294</v>
+        <v>1.9803921568627452</v>
       </c>
       <c r="O51">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.1980198019801982</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
       <c r="B52" t="s">
         <v>14</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>463</v>
+        <v>317</v>
       </c>
       <c r="F52">
-        <v>385</v>
+        <v>202</v>
       </c>
       <c r="G52">
         <v>199</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>187</v>
       </c>
       <c r="J52">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
@@ -2902,15 +2908,15 @@
       </c>
       <c r="M52">
         <f t="shared" si="3"/>
-        <v>4.8260869565217392</v>
+        <v>2.7101449275362319</v>
       </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>3.6956521739130435</v>
+        <v>1.0434782608695652</v>
       </c>
       <c r="O52">
         <f t="shared" si="5"/>
-        <v>1.3058823529411765</v>
+        <v>2.5972222222222223</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -2918,43 +2924,43 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="F53">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G53">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="J53">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M53">
         <f t="shared" si="3"/>
-        <v>4.3529411764705879</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="N53">
         <f t="shared" si="4"/>
-        <v>1.9803921568627452</v>
+        <v>2.3818181818181818</v>
       </c>
       <c r="O53">
         <f t="shared" si="5"/>
-        <v>2.1980198019801982</v>
+        <v>1.0305343511450382</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -2962,43 +2968,43 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="F54">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="G54">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="J54">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M54">
         <f t="shared" si="3"/>
-        <v>2.7101449275362319</v>
+        <v>3.870967741935484</v>
       </c>
       <c r="N54">
         <f t="shared" si="4"/>
-        <v>1.0434782608695652</v>
+        <v>2.306451612903226</v>
       </c>
       <c r="O54">
         <f t="shared" si="5"/>
-        <v>2.5972222222222223</v>
+        <v>1.6783216783216783</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3006,43 +3012,43 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>265</v>
+        <v>478</v>
       </c>
       <c r="F55">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="G55">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="J55">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M55">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>6.8235294117647056</v>
       </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>2.3818181818181818</v>
+        <v>1.2156862745098038</v>
       </c>
       <c r="O55">
         <f t="shared" si="5"/>
-        <v>1.0305343511450382</v>
+        <v>5.612903225806452</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3050,43 +3056,43 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="F56">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="G56">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="J56">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M56">
         <f t="shared" si="3"/>
-        <v>3.870967741935484</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="N56">
         <f t="shared" si="4"/>
-        <v>2.306451612903226</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="O56">
         <f t="shared" si="5"/>
-        <v>1.6783216783216783</v>
+        <v>1.7636363636363637</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3094,43 +3100,43 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="F57">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="G57">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="J57">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M57">
         <f t="shared" si="3"/>
-        <v>6.8235294117647056</v>
+        <v>3.9807692307692308</v>
       </c>
       <c r="N57">
         <f t="shared" si="4"/>
-        <v>1.2156862745098038</v>
+        <v>2.0576923076923075</v>
       </c>
       <c r="O57">
         <f t="shared" si="5"/>
-        <v>5.612903225806452</v>
+        <v>1.9345794392523366</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3138,178 +3144,178 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F58">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="G58">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J58">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M58">
         <f t="shared" si="3"/>
-        <v>4.041666666666667</v>
+        <v>3.7450980392156863</v>
       </c>
       <c r="N58">
         <f t="shared" si="4"/>
-        <v>2.2916666666666665</v>
+        <v>3.4705882352941178</v>
       </c>
       <c r="O58">
         <f t="shared" si="5"/>
-        <v>1.7636363636363637</v>
+        <v>1.0790960451977401</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>337</v>
+        <v>614</v>
       </c>
       <c r="F59">
-        <v>237</v>
+        <v>504</v>
       </c>
       <c r="G59">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>484</v>
       </c>
       <c r="J59">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>374</v>
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M59">
         <f t="shared" si="3"/>
-        <v>3.9807692307692308</v>
+        <v>9.4901960784313726</v>
       </c>
       <c r="N59">
         <f t="shared" si="4"/>
-        <v>2.0576923076923075</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="O59">
         <f t="shared" si="5"/>
-        <v>1.9345794392523366</v>
+        <v>1.2941176470588236</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="F60">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G60">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="J60">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M60">
         <f t="shared" si="3"/>
-        <v>3.7450980392156863</v>
+        <v>4.746031746031746</v>
       </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>3.4705882352941178</v>
+        <v>1.3968253968253967</v>
       </c>
       <c r="O60">
         <f t="shared" si="5"/>
-        <v>1.0790960451977401</v>
+        <v>3.3977272727272729</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>31</v>
-      </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>614</v>
+        <v>267</v>
       </c>
       <c r="F61">
-        <v>504</v>
+        <v>201</v>
       </c>
       <c r="G61">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>484</v>
+        <v>137</v>
       </c>
       <c r="J61">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M61">
         <f t="shared" si="3"/>
-        <v>9.4901960784313726</v>
+        <v>3.6052631578947367</v>
       </c>
       <c r="N61">
         <f t="shared" si="4"/>
-        <v>7.333333333333333</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="O61">
         <f t="shared" si="5"/>
-        <v>1.2941176470588236</v>
+        <v>1.9295774647887325</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3317,43 +3323,43 @@
         <v>18</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>429</v>
+        <v>538</v>
       </c>
       <c r="F62">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="G62">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>408</v>
       </c>
       <c r="J62">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M62">
         <f t="shared" si="3"/>
-        <v>4.746031746031746</v>
+        <v>5.5135135135135132</v>
       </c>
       <c r="N62">
         <f t="shared" si="4"/>
-        <v>1.3968253968253967</v>
+        <v>3.1756756756756759</v>
       </c>
       <c r="O62">
         <f t="shared" si="5"/>
-        <v>3.3977272727272729</v>
+        <v>1.7361702127659575</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3361,43 +3367,43 @@
         <v>18</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63">
-        <v>267</v>
+        <v>420</v>
       </c>
       <c r="F63">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G63">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="J63">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M63">
         <f t="shared" si="3"/>
-        <v>3.6052631578947367</v>
+        <v>5.9183673469387754</v>
       </c>
       <c r="N63">
         <f t="shared" si="4"/>
-        <v>1.868421052631579</v>
+        <v>1.7959183673469388</v>
       </c>
       <c r="O63">
         <f t="shared" si="5"/>
-        <v>1.9295774647887325</v>
+        <v>3.2954545454545454</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3405,43 +3411,43 @@
         <v>18</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>538</v>
+        <v>265</v>
       </c>
       <c r="F64">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="G64">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>135</v>
       </c>
       <c r="J64">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M64">
         <f t="shared" si="3"/>
-        <v>5.5135135135135132</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="N64">
         <f t="shared" si="4"/>
-        <v>3.1756756756756759</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="O64">
         <f t="shared" si="5"/>
-        <v>1.7361702127659575</v>
+        <v>1.4516129032258065</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3449,43 +3455,43 @@
         <v>18</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="F65">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="G65">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="J65">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M65">
         <f t="shared" si="3"/>
-        <v>5.9183673469387754</v>
+        <v>3.4642857142857144</v>
       </c>
       <c r="N65">
         <f t="shared" si="4"/>
-        <v>1.7959183673469388</v>
+        <v>2.4107142857142856</v>
       </c>
       <c r="O65">
         <f t="shared" si="5"/>
-        <v>3.2954545454545454</v>
+        <v>1.4370370370370371</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3493,43 +3499,43 @@
         <v>18</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66">
-        <v>265</v>
+        <v>440</v>
       </c>
       <c r="F66">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="G66">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="J66">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="M66">
         <f t="shared" si="3"/>
-        <v>4.0909090909090908</v>
+        <v>5.4385964912280702</v>
       </c>
       <c r="N66">
         <f t="shared" si="4"/>
-        <v>2.8181818181818183</v>
+        <v>2.5087719298245612</v>
       </c>
       <c r="O66">
         <f t="shared" si="5"/>
-        <v>1.4516129032258065</v>
+        <v>2.1678321678321679</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3537,23 +3543,23 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="F67">
         <v>265</v>
       </c>
       <c r="G67">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I67">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="J67">
         <f t="shared" si="1"/>
@@ -3561,19 +3567,19 @@
       </c>
       <c r="K67">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M67">
         <f t="shared" si="3"/>
-        <v>3.4642857142857144</v>
+        <v>3.3529411764705883</v>
       </c>
       <c r="N67">
         <f t="shared" si="4"/>
-        <v>2.4107142857142856</v>
+        <v>1.9852941176470589</v>
       </c>
       <c r="O67">
         <f t="shared" si="5"/>
-        <v>1.4370370370370371</v>
+        <v>1.6888888888888889</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -3581,43 +3587,43 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F68">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="G68">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I68">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J68">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M68">
         <f t="shared" si="3"/>
-        <v>5.4385964912280702</v>
+        <v>4.935483870967742</v>
       </c>
       <c r="N68">
         <f t="shared" si="4"/>
-        <v>2.5087719298245612</v>
+        <v>4.241935483870968</v>
       </c>
       <c r="O68">
         <f t="shared" si="5"/>
-        <v>2.1678321678321679</v>
+        <v>1.1634980988593155</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3625,43 +3631,43 @@
         <v>18</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F69">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="G69">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I69">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J69">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M69">
         <f t="shared" si="3"/>
-        <v>3.3529411764705883</v>
+        <v>2.7283950617283952</v>
       </c>
       <c r="N69">
         <f t="shared" si="4"/>
-        <v>1.9852941176470589</v>
+        <v>2.4938271604938271</v>
       </c>
       <c r="O69">
         <f t="shared" si="5"/>
-        <v>1.6888888888888889</v>
+        <v>1.0940594059405941</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3669,7 +3675,7 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -3678,10 +3684,10 @@
         <v>436</v>
       </c>
       <c r="F70">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="G70">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I70">
         <f t="shared" si="0"/>
@@ -3689,67 +3695,70 @@
       </c>
       <c r="J70">
         <f t="shared" si="1"/>
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M70">
         <f t="shared" si="3"/>
-        <v>4.935483870967742</v>
+        <v>4.371428571428571</v>
       </c>
       <c r="N70">
         <f t="shared" si="4"/>
-        <v>4.241935483870968</v>
+        <v>3.342857142857143</v>
       </c>
       <c r="O70">
         <f t="shared" si="5"/>
-        <v>1.1634980988593155</v>
+        <v>1.3076923076923077</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="F71">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="G71">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="I71">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="J71">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M71">
         <f t="shared" si="3"/>
-        <v>2.7283950617283952</v>
+        <v>5.6470588235294121</v>
       </c>
       <c r="N71">
         <f t="shared" si="4"/>
-        <v>2.4938271604938271</v>
+        <v>4.2745098039215685</v>
       </c>
       <c r="O71">
         <f t="shared" si="5"/>
-        <v>1.0940594059405941</v>
+        <v>1.3211009174311927</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3757,90 +3766,87 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
       </c>
       <c r="E72">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="F72">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="G72">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="I72">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="J72">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M72">
         <f t="shared" si="3"/>
-        <v>4.371428571428571</v>
+        <v>5.161290322580645</v>
       </c>
       <c r="N72">
         <f t="shared" si="4"/>
-        <v>3.342857142857143</v>
+        <v>3.5483870967741935</v>
       </c>
       <c r="O72">
         <f t="shared" si="5"/>
-        <v>1.3076923076923077</v>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>32</v>
-      </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>418</v>
+        <v>251</v>
       </c>
       <c r="F73">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="G73">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I73">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="J73">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M73">
         <f t="shared" si="3"/>
-        <v>5.6470588235294121</v>
+        <v>3.2702702702702702</v>
       </c>
       <c r="N73">
         <f t="shared" si="4"/>
-        <v>4.2745098039215685</v>
+        <v>1.2702702702702702</v>
       </c>
       <c r="O73">
         <f t="shared" si="5"/>
-        <v>1.3211009174311927</v>
+        <v>2.5744680851063828</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3848,43 +3854,43 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="F74">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="G74">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I74">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="J74">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M74">
         <f t="shared" si="3"/>
-        <v>5.161290322580645</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="N74">
         <f t="shared" si="4"/>
-        <v>3.5483870967741935</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="O74">
         <f t="shared" si="5"/>
-        <v>1.4545454545454546</v>
+        <v>2.0108695652173911</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -3892,43 +3898,43 @@
         <v>18</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="F75">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G75">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I75">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="J75">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M75">
         <f t="shared" si="3"/>
-        <v>3.2702702702702702</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="N75">
         <f t="shared" si="4"/>
-        <v>1.2702702702702702</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="O75">
         <f t="shared" si="5"/>
-        <v>2.5744680851063828</v>
+        <v>2.8461538461538463</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -3936,737 +3942,737 @@
         <v>18</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="F76">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="G76">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="I76">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="J76">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M76">
         <f t="shared" si="3"/>
-        <v>12.333333333333334</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="N76">
         <f t="shared" si="4"/>
-        <v>6.1333333333333337</v>
+        <v>2.5555555555555554</v>
       </c>
       <c r="O76">
         <f t="shared" si="5"/>
-        <v>2.0108695652173911</v>
+        <v>2.4223602484472049</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="F77">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="G77">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="I77">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="J77">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M77">
         <f t="shared" si="3"/>
-        <v>5.2857142857142856</v>
+        <v>5.604166666666667</v>
       </c>
       <c r="N77">
         <f t="shared" si="4"/>
-        <v>1.8571428571428572</v>
+        <v>3.6875</v>
       </c>
       <c r="O77">
         <f t="shared" si="5"/>
-        <v>2.8461538461538463</v>
+        <v>1.5197740112994351</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="F78">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="G78">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I78">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="J78">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M78">
         <f t="shared" si="3"/>
-        <v>6.1904761904761907</v>
+        <v>4.6296296296296298</v>
       </c>
       <c r="N78">
         <f t="shared" si="4"/>
-        <v>2.5555555555555554</v>
+        <v>2.0370370370370372</v>
       </c>
       <c r="O78">
         <f t="shared" si="5"/>
-        <v>2.4223602484472049</v>
+        <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>399</v>
+        <v>620</v>
       </c>
       <c r="F79">
-        <v>307</v>
+        <v>554</v>
       </c>
       <c r="G79">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I79">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>490</v>
       </c>
       <c r="J79">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>424</v>
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M79">
         <f t="shared" si="3"/>
-        <v>5.604166666666667</v>
+        <v>10</v>
       </c>
       <c r="N79">
         <f t="shared" si="4"/>
-        <v>3.6875</v>
+        <v>8.6530612244897966</v>
       </c>
       <c r="O79">
         <f t="shared" si="5"/>
-        <v>1.5197740112994351</v>
+        <v>1.1556603773584906</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>318</v>
+      </c>
+      <c r="F80">
+        <v>224</v>
+      </c>
+      <c r="G80">
+        <v>178</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="3"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="4"/>
+        <v>1.9583333333333333</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="5"/>
         <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <v>380</v>
-      </c>
-      <c r="F80">
-        <v>240</v>
-      </c>
-      <c r="G80">
-        <v>184</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="3"/>
-        <v>4.6296296296296298</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="4"/>
-        <v>2.0370370370370372</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="5"/>
-        <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
       </c>
       <c r="E81">
-        <v>620</v>
+        <v>331</v>
       </c>
       <c r="F81">
-        <v>554</v>
+        <v>307</v>
       </c>
       <c r="G81">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I81">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>201</v>
       </c>
       <c r="J81">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>177</v>
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M81">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>3.6545454545454548</v>
       </c>
       <c r="N81">
         <f t="shared" si="4"/>
-        <v>8.6530612244897966</v>
+        <v>3.2181818181818183</v>
       </c>
       <c r="O81">
         <f t="shared" si="5"/>
-        <v>1.1556603773584906</v>
+        <v>1.1355932203389831</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="F82">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="G82">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="I82">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="J82">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M82">
         <f t="shared" si="3"/>
-        <v>3.9166666666666665</v>
+        <v>3.4637681159420288</v>
       </c>
       <c r="N82">
         <f t="shared" si="4"/>
-        <v>1.9583333333333333</v>
+        <v>2.2028985507246377</v>
       </c>
       <c r="O82">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5723684210526316</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
       </c>
       <c r="E83">
-        <v>331</v>
+        <v>510</v>
       </c>
       <c r="F83">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="G83">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I83">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>380</v>
       </c>
       <c r="J83">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M83">
         <f t="shared" si="3"/>
-        <v>3.6545454545454548</v>
+        <v>6.0317460317460316</v>
       </c>
       <c r="N83">
         <f t="shared" si="4"/>
-        <v>3.2181818181818183</v>
+        <v>4.0317460317460316</v>
       </c>
       <c r="O83">
         <f t="shared" si="5"/>
-        <v>1.1355932203389831</v>
+        <v>1.4960629921259843</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
       </c>
       <c r="E84">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="F84">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="G84">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I84">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J84">
         <f t="shared" si="1"/>
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M84">
         <f t="shared" si="3"/>
-        <v>3.4637681159420288</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="N84">
         <f t="shared" si="4"/>
-        <v>2.2028985507246377</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="O84">
         <f t="shared" si="5"/>
-        <v>1.5723684210526316</v>
+        <v>1.2571428571428571</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>510</v>
+        <v>329</v>
       </c>
       <c r="F85">
-        <v>384</v>
+        <v>246</v>
       </c>
       <c r="G85">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I85">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>199</v>
       </c>
       <c r="J85">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M85">
         <f t="shared" si="3"/>
-        <v>6.0317460317460316</v>
+        <v>3.8269230769230771</v>
       </c>
       <c r="N85">
         <f t="shared" si="4"/>
-        <v>4.0317460317460316</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="O85">
         <f t="shared" si="5"/>
-        <v>1.4960629921259843</v>
+        <v>1.7155172413793103</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="F86">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="G86">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I86">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="J86">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="M86">
         <f t="shared" si="3"/>
-        <v>2.8571428571428572</v>
+        <v>4.4117647058823533</v>
       </c>
       <c r="N86">
         <f t="shared" si="4"/>
-        <v>2.2727272727272729</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="O86">
         <f t="shared" si="5"/>
-        <v>1.2571428571428571</v>
+        <v>3.4090909090909092</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="F87">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="G87">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I87">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="J87">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M87">
         <f t="shared" si="3"/>
-        <v>3.8269230769230771</v>
+        <v>6.6818181818181817</v>
       </c>
       <c r="N87">
         <f t="shared" si="4"/>
-        <v>2.2307692307692308</v>
+        <v>6.3863636363636367</v>
       </c>
       <c r="O87">
         <f t="shared" si="5"/>
-        <v>1.7155172413793103</v>
+        <v>1.0462633451957295</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="F88">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="G88">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I88">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="J88">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M88">
         <f t="shared" si="3"/>
-        <v>4.4117647058823533</v>
+        <v>3.6779661016949152</v>
       </c>
       <c r="N88">
         <f t="shared" si="4"/>
-        <v>1.2941176470588236</v>
+        <v>2.9661016949152543</v>
       </c>
       <c r="O88">
         <f t="shared" si="5"/>
-        <v>3.4090909090909092</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>34</v>
-      </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>283</v>
+      </c>
+      <c r="F89">
+        <v>283</v>
+      </c>
+      <c r="G89">
+        <v>175</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="4"/>
+        <v>3.4</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89">
-        <v>424</v>
-      </c>
-      <c r="F89">
-        <v>411</v>
-      </c>
-      <c r="G89">
-        <v>174</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="0"/>
-        <v>294</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>281</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="3"/>
-        <v>6.6818181818181817</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="4"/>
-        <v>6.3863636363636367</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="5"/>
-        <v>1.0462633451957295</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E90">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="F90">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="G90">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="I90">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="J90">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M90">
         <f t="shared" si="3"/>
-        <v>3.6779661016949152</v>
+        <v>3.6739130434782608</v>
       </c>
       <c r="N90">
         <f t="shared" si="4"/>
-        <v>2.9661016949152543</v>
+        <v>2.3695652173913042</v>
       </c>
       <c r="O90">
         <f t="shared" si="5"/>
-        <v>1.24</v>
+        <v>1.5504587155963303</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="F91">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="G91">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I91">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J91">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M91">
         <f t="shared" si="3"/>
-        <v>3.4</v>
+        <v>3.2592592592592591</v>
       </c>
       <c r="N91">
         <f t="shared" si="4"/>
-        <v>3.4</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="O91">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="F92">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G92">
         <v>176</v>
       </c>
       <c r="I92">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="J92">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
@@ -4674,178 +4680,178 @@
       </c>
       <c r="M92">
         <f t="shared" si="3"/>
-        <v>3.6739130434782608</v>
+        <v>2.8913043478260869</v>
       </c>
       <c r="N92">
         <f t="shared" si="4"/>
-        <v>2.3695652173913042</v>
+        <v>2.0434782608695654</v>
       </c>
       <c r="O92">
         <f t="shared" si="5"/>
-        <v>1.5504587155963303</v>
+        <v>1.4148936170212767</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="F93">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G93">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="I93">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="J93">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M93">
         <f t="shared" si="3"/>
-        <v>3.2592592592592591</v>
+        <v>4.88</v>
       </c>
       <c r="N93">
         <f t="shared" si="4"/>
-        <v>0.92592592592592593</v>
+        <v>2.68</v>
       </c>
       <c r="O93">
         <f t="shared" si="5"/>
-        <v>3.52</v>
+        <v>1.8208955223880596</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>263</v>
+        <v>592</v>
       </c>
       <c r="F94">
-        <v>224</v>
+        <v>569</v>
       </c>
       <c r="G94">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I94">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="J94">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>439</v>
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M94">
         <f t="shared" si="3"/>
-        <v>2.8913043478260869</v>
+        <v>8.7169811320754711</v>
       </c>
       <c r="N94">
         <f t="shared" si="4"/>
-        <v>2.0434782608695654</v>
+        <v>8.2830188679245289</v>
       </c>
       <c r="O94">
         <f t="shared" si="5"/>
-        <v>1.4148936170212767</v>
+        <v>1.0523917995444192</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>252</v>
+        <v>604</v>
       </c>
       <c r="F95">
-        <v>197</v>
+        <v>577</v>
       </c>
       <c r="G95">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="I95">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="J95">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>447</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="3"/>
+        <v>5.2087912087912089</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="4"/>
+        <v>4.9120879120879124</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="5"/>
+        <v>1.0604026845637584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>25</v>
       </c>
-      <c r="M95">
-        <f t="shared" si="3"/>
-        <v>4.88</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="4"/>
-        <v>2.68</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="5"/>
-        <v>1.8208955223880596</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" t="s">
-        <v>26</v>
-      </c>
       <c r="C96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E96">
-        <v>592</v>
+        <v>283</v>
       </c>
       <c r="F96">
-        <v>569</v>
+        <v>264</v>
       </c>
       <c r="G96">
         <v>183</v>
       </c>
       <c r="I96">
         <f t="shared" si="0"/>
-        <v>462</v>
+        <v>153</v>
       </c>
       <c r="J96">
         <f t="shared" si="1"/>
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
@@ -4853,544 +4859,456 @@
       </c>
       <c r="M96">
         <f t="shared" si="3"/>
-        <v>8.7169811320754711</v>
+        <v>2.8867924528301887</v>
       </c>
       <c r="N96">
         <f t="shared" si="4"/>
-        <v>8.2830188679245289</v>
+        <v>2.5283018867924527</v>
       </c>
       <c r="O96">
         <f t="shared" si="5"/>
-        <v>1.0523917995444192</v>
+        <v>1.1417910447761195</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>604</v>
+        <v>707</v>
       </c>
       <c r="F97">
+        <v>279</v>
+      </c>
+      <c r="G97">
+        <v>189</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
-      <c r="G97">
-        <v>221</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
       <c r="J97">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>149</v>
       </c>
       <c r="K97">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M97">
         <f t="shared" si="3"/>
-        <v>5.2087912087912089</v>
+        <v>9.7796610169491522</v>
       </c>
       <c r="N97">
         <f t="shared" si="4"/>
-        <v>4.9120879120879124</v>
+        <v>2.5254237288135593</v>
       </c>
       <c r="O97">
         <f t="shared" si="5"/>
-        <v>1.0604026845637584</v>
+        <v>3.8724832214765099</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="F98">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G98">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I98">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="J98">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M98">
         <f t="shared" si="3"/>
-        <v>2.8867924528301887</v>
+        <v>4.2790697674418601</v>
       </c>
       <c r="N98">
         <f t="shared" si="4"/>
-        <v>2.5283018867924527</v>
+        <v>2.7209302325581395</v>
       </c>
       <c r="O98">
         <f t="shared" si="5"/>
-        <v>1.1417910447761195</v>
+        <v>1.5726495726495726</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99">
-        <v>707</v>
+        <v>321</v>
       </c>
       <c r="F99">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="G99">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="I99">
         <f t="shared" si="0"/>
-        <v>577</v>
+        <v>191</v>
       </c>
       <c r="J99">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M99">
         <f t="shared" si="3"/>
-        <v>9.7796610169491522</v>
+        <v>5.4571428571428573</v>
       </c>
       <c r="N99">
         <f t="shared" si="4"/>
-        <v>2.5254237288135593</v>
+        <v>2.657142857142857</v>
       </c>
       <c r="O99">
         <f t="shared" si="5"/>
-        <v>3.8724832214765099</v>
+        <v>2.053763440860215</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100">
-        <v>314</v>
+        <v>533</v>
       </c>
       <c r="F100">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="G100">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I100">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>403</v>
       </c>
       <c r="J100">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M100">
         <f t="shared" si="3"/>
-        <v>4.2790697674418601</v>
+        <v>9.1590909090909083</v>
       </c>
       <c r="N100">
         <f t="shared" si="4"/>
-        <v>2.7209302325581395</v>
+        <v>3.5227272727272729</v>
       </c>
       <c r="O100">
         <f t="shared" si="5"/>
-        <v>1.5726495726495726</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="F101">
+        <v>295</v>
+      </c>
+      <c r="G101">
+        <v>193</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="G101">
+      <c r="J101">
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M101">
         <f t="shared" si="3"/>
-        <v>5.4571428571428573</v>
+        <v>3.5396825396825395</v>
       </c>
       <c r="N101">
         <f t="shared" si="4"/>
-        <v>2.657142857142857</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="O101">
         <f t="shared" si="5"/>
-        <v>2.053763440860215</v>
+        <v>1.3515151515151516</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="F102">
-        <v>285</v>
+        <v>377</v>
       </c>
       <c r="G102">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I102">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="J102">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M102">
         <f t="shared" si="3"/>
-        <v>9.1590909090909083</v>
+        <v>11.0625</v>
       </c>
       <c r="N102">
         <f t="shared" si="4"/>
-        <v>3.5227272727272729</v>
+        <v>7.71875</v>
       </c>
       <c r="O102">
         <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>1.4331983805668016</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>353</v>
+        <v>532</v>
       </c>
       <c r="F103">
-        <v>295</v>
+        <v>537</v>
       </c>
       <c r="G103">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I103">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>402</v>
       </c>
       <c r="J103">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>407</v>
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M103">
         <f t="shared" si="3"/>
-        <v>3.5396825396825395</v>
+        <v>6.1846153846153848</v>
       </c>
       <c r="N103">
         <f t="shared" si="4"/>
-        <v>2.6190476190476191</v>
+        <v>6.2615384615384615</v>
       </c>
       <c r="O103">
         <f t="shared" si="5"/>
-        <v>1.3515151515151516</v>
+        <v>0.98771498771498767</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="F104">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="G104">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I104">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="J104">
         <f t="shared" si="1"/>
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K104">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M104">
         <f t="shared" si="3"/>
-        <v>11.0625</v>
+        <v>4.2985074626865671</v>
       </c>
       <c r="N104">
         <f t="shared" si="4"/>
-        <v>7.71875</v>
+        <v>4.1044776119402986</v>
       </c>
       <c r="O104">
         <f t="shared" si="5"/>
-        <v>1.4331983805668016</v>
+        <v>1.0472727272727274</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>36</v>
-      </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
         <v>16</v>
       </c>
       <c r="E105">
-        <v>532</v>
+        <v>685</v>
       </c>
       <c r="F105">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="G105">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I105">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>555</v>
       </c>
       <c r="J105">
         <f t="shared" si="1"/>
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="K105">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M105">
         <f t="shared" si="3"/>
-        <v>6.1846153846153848</v>
+        <v>8.8095238095238102</v>
       </c>
       <c r="N105">
         <f t="shared" si="4"/>
-        <v>6.2615384615384615</v>
+        <v>6.8412698412698409</v>
       </c>
       <c r="O105">
         <f t="shared" si="5"/>
-        <v>0.98771498771498767</v>
+        <v>1.2877030162412992</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>418</v>
+        <v>599</v>
       </c>
       <c r="F106">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="G106">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I106">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>469</v>
       </c>
       <c r="J106">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="K106">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M106">
         <f t="shared" si="3"/>
-        <v>4.2985074626865671</v>
+        <v>6.253333333333333</v>
       </c>
       <c r="N106">
         <f t="shared" si="4"/>
-        <v>4.1044776119402986</v>
+        <v>4.4133333333333331</v>
       </c>
       <c r="O106">
-        <f t="shared" si="5"/>
-        <v>1.0472727272727274</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-      <c r="D107" t="s">
-        <v>16</v>
-      </c>
-      <c r="E107">
-        <v>685</v>
-      </c>
-      <c r="F107">
-        <v>561</v>
-      </c>
-      <c r="G107">
-        <v>193</v>
-      </c>
-      <c r="I107">
-        <f t="shared" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="1"/>
-        <v>431</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="3"/>
-        <v>8.8095238095238102</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="4"/>
-        <v>6.8412698412698409</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="5"/>
-        <v>1.2877030162412992</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108">
-        <v>599</v>
-      </c>
-      <c r="F108">
-        <v>461</v>
-      </c>
-      <c r="G108">
-        <v>205</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="0"/>
-        <v>469</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="1"/>
-        <v>331</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="3"/>
-        <v>6.253333333333333</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="4"/>
-        <v>4.4133333333333331</v>
-      </c>
-      <c r="O108">
         <f t="shared" si="5"/>
         <v>1.4169184290030212</v>
       </c>
@@ -5402,698 +5320,740 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B20EF-459B-EC49-A3CE-43CE68540758}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="7" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>4.1816012697273299</v>
+      </c>
+      <c r="K2">
+        <v>4.1928451570613801</v>
+      </c>
+      <c r="L2">
+        <v>1.2661082472009599</v>
+      </c>
+      <c r="M2">
+        <v>1.2811358266052699</v>
+      </c>
+      <c r="N2">
+        <v>136</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4.1816012699999998</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4.7262468799999997</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.26610825</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2.4666103800000001</v>
-      </c>
-      <c r="M2" s="2">
-        <v>136</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.83514600000000005</v>
+      </c>
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>4.1816012697273299</v>
+      </c>
+      <c r="K3">
+        <v>3.7805389364528201</v>
+      </c>
+      <c r="L3">
+        <v>1.2661082472009599</v>
+      </c>
+      <c r="M3">
+        <v>0.77850588850213798</v>
+      </c>
+      <c r="N3">
+        <v>177</v>
+      </c>
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4.1816012699999998</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3.78053894</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.26610825</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.77850589000000003</v>
-      </c>
-      <c r="M3" s="2">
-        <v>177</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.41720699999999999</v>
+      </c>
+      <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>4.1816012697273299</v>
+      </c>
+      <c r="K4">
+        <v>5.2287342834073502</v>
+      </c>
+      <c r="L4">
+        <v>1.2661082472009599</v>
+      </c>
+      <c r="M4">
+        <v>2.9973366011897999</v>
+      </c>
+      <c r="N4">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4.1816012699999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5.2287342800000003</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1.26610825</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2.9973366000000001</v>
-      </c>
-      <c r="M4" s="2">
-        <v>108</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.56492500000000001</v>
+      </c>
+      <c r="R4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="I5" s="2">
-        <v>6.1020077099999996</v>
-      </c>
-      <c r="J5" s="2">
-        <v>7.1092396400000002</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.5835347</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2.7735819500000001</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-0.95233650000000003</v>
-      </c>
-      <c r="N5" s="2">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="J5">
+        <v>5.8197186870158504</v>
+      </c>
+      <c r="K5">
+        <v>7.10923964223515</v>
+      </c>
+      <c r="L5">
+        <v>2.4291630749448001</v>
+      </c>
+      <c r="M5">
+        <v>2.7735819473976302</v>
+      </c>
+      <c r="N5">
+        <v>-1.23831972184487</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.22808800000000001</v>
+      </c>
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="I6" s="2">
-        <v>6.1020077099999996</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5.4684119500000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.5835347</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2.4123348099999999</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.57253717999999998</v>
-      </c>
-      <c r="N6" s="2">
-        <v>21</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="J6">
+        <v>5.8197186870158504</v>
+      </c>
+      <c r="K6">
+        <v>5.4684119475994004</v>
+      </c>
+      <c r="L6">
+        <v>2.4291630749448001</v>
+      </c>
+      <c r="M6">
+        <v>2.4123348069194801</v>
+      </c>
+      <c r="N6">
+        <v>0.32709913373081101</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.74699199999999999</v>
+      </c>
+      <c r="R6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="3">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="I7" s="2">
-        <v>6.1020077099999996</v>
-      </c>
-      <c r="J7" s="2">
-        <v>8.0958863300000008</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.5835347</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2.5090919</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-1.8495991000000001</v>
-      </c>
-      <c r="N7" s="2">
-        <v>22</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="3">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>5.8197186870158504</v>
+      </c>
+      <c r="K7">
+        <v>8.0958863345773704</v>
+      </c>
+      <c r="L7">
+        <v>2.4291630749448001</v>
+      </c>
+      <c r="M7">
+        <v>2.5090918991848299</v>
+      </c>
+      <c r="N7">
+        <v>-2.1657329265921601</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4.1989800000000001E-2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1.66273437089223</v>
+      </c>
+      <c r="K8">
+        <v>2.2817784259081799</v>
+      </c>
+      <c r="L8">
+        <v>0.417011528120731</v>
+      </c>
+      <c r="M8">
+        <v>0.69452097129393897</v>
+      </c>
+      <c r="N8">
+        <v>-3.2250064366113498</v>
+      </c>
+      <c r="O8">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1.6627343699999999</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2.5113263699999999</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.41701153000000002</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1.1372239</v>
-      </c>
-      <c r="M8" s="2">
-        <v>65</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4.1799999999999997E-3</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>2.8999099999999999E-3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9">
         <v>19</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9">
         <v>16</v>
       </c>
-      <c r="I9" s="2">
-        <v>1.6627343699999999</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2.3966485999999998</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.41701153000000002</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.75343249000000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>-3.6411096000000001</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="J9">
+        <v>1.66273437089223</v>
+      </c>
+      <c r="K9">
+        <v>2.3966486043776798</v>
+      </c>
+      <c r="L9">
+        <v>0.417011528120731</v>
+      </c>
+      <c r="M9">
+        <v>0.75343249463196305</v>
+      </c>
+      <c r="N9">
+        <v>-3.6411096471660298</v>
+      </c>
+      <c r="O9">
         <v>33</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="3">
-        <v>9.2000000000000003E-4</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>9.2004100000000002E-4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>1.66273437089223</v>
+      </c>
+      <c r="K10">
+        <v>2.92755566896999</v>
+      </c>
+      <c r="L10">
+        <v>0.417011528120731</v>
+      </c>
+      <c r="M10">
+        <v>0.982972520506464</v>
+      </c>
+      <c r="N10">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.6627343699999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2.9275556699999998</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.41701153000000002</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.98297252000000002</v>
-      </c>
-      <c r="M10" s="2">
-        <v>17</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="3">
-        <v>4.7599999999999998E-5</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>4.7589999999999997E-5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>3.6871410043718802</v>
+      </c>
+      <c r="K11">
+        <v>5.3383562551235402</v>
+      </c>
+      <c r="L11">
+        <v>1.3736238210479601</v>
+      </c>
+      <c r="M11">
+        <v>1.9022689328471101</v>
+      </c>
+      <c r="N11">
+        <v>-2.5223721987714001</v>
+      </c>
+      <c r="O11">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4.0719622299999996</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5.3383562600000003</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.99333355</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1.90226893</v>
-      </c>
-      <c r="M11" s="2">
-        <v>48</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="3">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3">
+        <v>1.9029799999999999E-2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>3.6871410043718802</v>
+      </c>
+      <c r="K12">
+        <v>4.6967640029618103</v>
+      </c>
+      <c r="L12">
+        <v>1.3736238210479601</v>
+      </c>
+      <c r="M12">
+        <v>2.3058932017426601</v>
+      </c>
+      <c r="N12">
+        <v>-1.29645395249591</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4.0719622299999996</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4.6967639999999999</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.99333355</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2.3058931999999999</v>
-      </c>
-      <c r="M12" s="2">
-        <v>49</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="Q12" s="3">
+        <v>0.20957899999999999</v>
+      </c>
+      <c r="R12" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>3.6871410043718802</v>
+      </c>
+      <c r="K13">
+        <v>6.4260293654633198</v>
+      </c>
+      <c r="L13">
+        <v>1.3736238210479601</v>
+      </c>
+      <c r="M13">
+        <v>1.46103576530213</v>
+      </c>
+      <c r="N13">
+        <v>-4.5543623796180803</v>
+      </c>
+      <c r="O13">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4.0719622299999996</v>
-      </c>
-      <c r="J13" s="2">
-        <v>6.4260293700000002</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1.99333355</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1.4610357700000001</v>
-      </c>
-      <c r="M13" s="2">
-        <v>18</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3.48E-3</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="3">
+        <v>1.7269799999999999E-4</v>
+      </c>
+      <c r="R13" t="s">
         <v>56</v>
       </c>
     </row>
